--- a/biology/Zoologie/Aporia_hippia/Aporia_hippia.xlsx
+++ b/biology/Zoologie/Aporia_hippia/Aporia_hippia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aporia hippia est une espèce de lépidoptères (papillons) originaires d'Extrême-Orient, appartenant à la famille des Pieridae et à la sous-famille des Pierinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d’Aporia hippia est un papillon de taille moyenne, aux ailes de couleur blanche veinées de noir et à l'apex des antérieures arrondi.
 Le revers des postérieures peut être jaune très pâle.
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Berberis, notamment Berberis amurensis et Berberis thunbergii[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Berberis, notamment Berberis amurensis et Berberis thunbergii.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans le Nord-Est de la Chine (Mandchourie), en Extrême-Orient russe, en Corée et au Japon[1].
-Au Japon, elle réside dans les zones de haute montagne du centre de Honshū[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans le Nord-Est de la Chine (Mandchourie), en Extrême-Orient russe, en Corée et au Japon.
+Au Japon, elle réside dans les zones de haute montagne du centre de Honshū.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Aporia hippia a été décrite en 1861 par le naturaliste allemand Otto Bremer, sous le nom initial de Pieris hippia[1].
-Plusieurs sous-espèces sont reconnues[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce actuellement appelée Aporia hippia a été décrite en 1861 par le naturaliste allemand Otto Bremer, sous le nom initial de Pieris hippia.
+Plusieurs sous-espèces sont reconnues :
 Aporia hippia hippia (Bremer, 1861)
 Aporia hippia crataegoides (Lucas, 1866)
 Aporia hippia kreitneri Frivaldsky, 1886
@@ -644,9 +664,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est appelée Miyama-siro-cho en japonais[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est appelée Miyama-siro-cho en japonais.
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur un timbre-poste du Laos de 1986 (valeur faciale : 0,50 k)[réf. souhaitée].
 </t>
